--- a/Part3/3.4/PIO Lisf of Registers.xlsx
+++ b/Part3/3.4/PIO Lisf of Registers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniepan/PycharmProjects/ese5190-2022-lab2-into-the-void-star/Part3/3.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65CD118-20D4-714D-A76A-4B7384FD5A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27E10F5-E620-AF4D-A131-9CABBF9E96F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PART3.4" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t>INSTR_MEM0</t>
   </si>
   <si>
-    <t>0x00000030</t>
-  </si>
-  <si>
     <t>15:0</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>INSTR_MEMn</t>
   </si>
   <si>
-    <t>50200030+4n</t>
-  </si>
-  <si>
     <t>0x48+4n</t>
   </si>
   <si>
@@ -302,9 +296,6 @@
   </si>
   <si>
     <t>SM0_CLKDIV</t>
-  </si>
-  <si>
-    <t>50200c8</t>
   </si>
   <si>
     <t>0x000000c8</t>
@@ -466,9 +457,6 @@
     <t>502000dc</t>
   </si>
   <si>
-    <t>0x0dc</t>
-  </si>
-  <si>
     <t>SIDESET_COUNT
 SET_COUNT
 OUT_COUNT
@@ -748,6 +736,18 @@
   </si>
   <si>
     <t>Color in Hex format</t>
+  </si>
+  <si>
+    <t>0x00000048</t>
+  </si>
+  <si>
+    <t>50200048+4n</t>
+  </si>
+  <si>
+    <t>502000c8</t>
+  </si>
+  <si>
+    <t>0x000000dc</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1435,10 +1435,10 @@
         <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>53</v>
@@ -1571,26 +1571,26 @@
         <v>68</v>
       </c>
       <c r="B15" s="1">
-        <v>50200030</v>
+        <v>50200048</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1603,29 +1603,29 @@
     </row>
     <row r="16" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1638,29 +1638,29 @@
     </row>
     <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1673,31 +1673,31 @@
     </row>
     <row r="18" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1710,31 +1710,31 @@
     </row>
     <row r="19" spans="1:17" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1747,31 +1747,31 @@
     </row>
     <row r="20" spans="1:17" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1784,29 +1784,29 @@
     </row>
     <row r="21" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1819,27 +1819,27 @@
     </row>
     <row r="22" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -1852,31 +1852,31 @@
     </row>
     <row r="23" spans="1:17" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1889,31 +1889,31 @@
     </row>
     <row r="24" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="H24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1926,31 +1926,31 @@
     </row>
     <row r="25" spans="1:17" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1963,31 +1963,31 @@
     </row>
     <row r="26" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="I26" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2000,31 +2000,31 @@
     </row>
     <row r="27" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="G27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2037,29 +2037,29 @@
     </row>
     <row r="28" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2072,31 +2072,31 @@
     </row>
     <row r="29" spans="1:17" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2109,31 +2109,31 @@
     </row>
     <row r="30" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2146,31 +2146,31 @@
     </row>
     <row r="31" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2183,31 +2183,31 @@
     </row>
     <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="33" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2257,29 +2257,29 @@
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2292,31 +2292,31 @@
     </row>
     <row r="35" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2329,31 +2329,31 @@
     </row>
     <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2366,31 +2366,31 @@
     </row>
     <row r="37" spans="1:17" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2403,31 +2403,31 @@
     </row>
     <row r="38" spans="1:17" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2440,31 +2440,31 @@
     </row>
     <row r="39" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2477,29 +2477,29 @@
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -2512,31 +2512,31 @@
     </row>
     <row r="41" spans="1:17" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2561,7 +2561,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData/>
